--- a/Proyecto Interno/Time-series/ts-unit-root/CALI/CALI_LIMONES_df.xlsx
+++ b/Proyecto Interno/Time-series/ts-unit-root/CALI/CALI_LIMONES_df.xlsx
@@ -1,24 +1,98 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8f89820ab55adc2/Escritorio/Least-cost-diets-and-affordability/Proyecto Interno/Time-series/ts-unit-root/CALI/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_4E71FDCE8F79A8536E3CA493EAB38AB782D68A11" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D7B5D17-D5A8-4D9A-AA6C-092591CC4E53}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>articulo</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
+  </si>
+  <si>
+    <t>tau</t>
+  </si>
+  <si>
+    <t>phi</t>
+  </si>
+  <si>
+    <t>tau_1</t>
+  </si>
+  <si>
+    <t>phi_1</t>
+  </si>
+  <si>
+    <t>tau_5</t>
+  </si>
+  <si>
+    <t>phi_5</t>
+  </si>
+  <si>
+    <t>h0_tau_1</t>
+  </si>
+  <si>
+    <t>h0_tau_5</t>
+  </si>
+  <si>
+    <t>h0_phi_1</t>
+  </si>
+  <si>
+    <t>h0_phi_5</t>
+  </si>
+  <si>
+    <t>clase</t>
+  </si>
+  <si>
+    <t>coint.p.type1</t>
+  </si>
+  <si>
+    <t>coint.p.type2</t>
+  </si>
+  <si>
+    <t>coint.p.type3</t>
+  </si>
+  <si>
+    <t>LIMONES</t>
+  </si>
+  <si>
+    <t>IPC</t>
+  </si>
+  <si>
+    <t>Limón común</t>
+  </si>
+  <si>
+    <t>SIPSA</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,13 +141,25 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -111,7 +197,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -145,6 +231,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -179,9 +266,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -354,109 +442,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.6640625" style="2" customWidth="1"/>
+    <col min="10" max="13" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="13.109375" customWidth="1"/>
+    <col min="17" max="17" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>articulo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>start_date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>end_date</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>phi</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>tau_1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>phi_1</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>tau_5</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>phi_5</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>h0_tau_1</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>h0_tau_5</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>h0_phi_1</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>h0_phi_5</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>clase</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>coint.p.type1</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>coint.p.type2</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>coint.p.type3</t>
-        </is>
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>LIMONES</t>
-        </is>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="2">
         <v>41275</v>
@@ -465,10 +523,10 @@
         <v>43160</v>
       </c>
       <c r="D2">
-        <v>-5.963371815000457</v>
+        <v>-5.9633718150004569</v>
       </c>
       <c r="E2">
-        <v>17.84084190282574</v>
+        <v>17.840841902825741</v>
       </c>
       <c r="F2">
         <v>-3.51</v>
@@ -494,17 +552,13 @@
       <c r="M2" t="b">
         <v>1</v>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>IPC</t>
-        </is>
+      <c r="N2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Limón común</t>
-        </is>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
       </c>
       <c r="B3" s="2">
         <v>43101</v>
@@ -513,10 +567,10 @@
         <v>43435</v>
       </c>
       <c r="D3">
-        <v>-3.398559798753824</v>
+        <v>-3.3985597987538241</v>
       </c>
       <c r="E3">
-        <v>6.659754026193378</v>
+        <v>6.6597540261933776</v>
       </c>
       <c r="F3">
         <v>-3.75</v>
@@ -542,10 +596,8 @@
       <c r="M3" t="b">
         <v>1</v>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>SIPSA</t>
-        </is>
+      <c r="N3" t="s">
+        <v>20</v>
       </c>
       <c r="O3">
         <v>0.1</v>
